--- a/2.xlsx
+++ b/2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="27792" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,10 +153,10 @@
     <t>OL-ML</t>
   </si>
   <si>
-    <t>qu (ksc.)</t>
-  </si>
-  <si>
-    <t>Su(ksc.)</t>
+    <t>Su (t/sq.m.)</t>
+  </si>
+  <si>
+    <t>Su from Ncor</t>
   </si>
 </sst>
 </file>
@@ -169,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0_)"/>
+    <numFmt numFmtId="164" formatCode="0_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -318,7 +313,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -360,8 +355,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_sum-kac" xfId="2"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ_42xx-4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,7 +373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,7 +450,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,10 +662,10 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:N83"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1"/>
@@ -714,7 +709,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2204,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2221,7 +2216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2.xlsx
+++ b/2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Depth, m</t>
   </si>
@@ -662,7 +662,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1220,9 +1220,7 @@
       <c r="K17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="17"/>
       <c r="N17" s="7">
         <v>17</v>
@@ -1263,9 +1261,7 @@
       <c r="K18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="17"/>
       <c r="N18" s="7">
         <v>10</v>
@@ -1348,9 +1344,7 @@
       <c r="K20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="17"/>
       <c r="N20" s="7">
         <v>61</v>
@@ -1391,9 +1385,7 @@
       <c r="K21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="17"/>
       <c r="N21" s="7">
         <v>105</v>
@@ -1434,9 +1426,7 @@
       <c r="K22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="17"/>
       <c r="N22" s="7">
         <v>81</v>
@@ -1477,9 +1467,7 @@
       <c r="K23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="17"/>
       <c r="N23" s="7">
         <v>56</v>
